--- a/KatalonData/ABPTestData/PaymentsACH.xlsx
+++ b/KatalonData/ABPTestData/PaymentsACH.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T476640\Documents\VPS_Katalon\VPS-Katalon\KatalonData\ABPTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{24D768E1-C203-416E-851C-A86E1B3BEF56}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{7EF67B84-D82B-4DB6-9001-93A0A11D758D}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView activeTab="25" firstSheet="24" windowHeight="10420" windowWidth="19420" xWindow="-110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-110"/>
+    <workbookView activeTab="28" firstSheet="27" windowHeight="10420" windowWidth="19420" xWindow="-110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-110"/>
   </bookViews>
   <sheets>
     <sheet name="VerifySuccessfulPaymentPSNoCF" r:id="rId1" sheetId="1"/>
@@ -39,7 +39,9 @@
     <sheet name="CreateVerifyDeleteCorpPM" r:id="rId24" sheetId="24"/>
     <sheet name="VerifySuccessfulPaymentSPMPCDCF" r:id="rId25" sheetId="25"/>
     <sheet name="VerifySuccessfulPaymentSPMPSDCF" r:id="rId26" sheetId="26"/>
-    <sheet name="VerifySuccessfulPaymentSPMCoDCF" r:id="rId27" sheetId="27"/>
+    <sheet name="UiVerificationSPPaymentMethodPC" r:id="rId27" sheetId="28"/>
+    <sheet name="VerifySuccessfulPaymentSPMCoDCF" r:id="rId28" sheetId="27"/>
+    <sheet name="UiVerificationSPPMCorp" r:id="rId29" sheetId="29"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -51,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="67">
   <si>
     <t>Result</t>
   </si>
@@ -283,9 +285,6 @@
 United States</t>
   </si>
   <si>
-    <t>Mon Jun 16 16:56:18 IST 2025</t>
-  </si>
-  <si>
     <t>Mon Jun 16 17:19:20 IST 2025</t>
   </si>
   <si>
@@ -295,10 +294,46 @@
     <t>Wed Jun 18 20:26:37 IST 2025</t>
   </si>
   <si>
+    <t>Wed Jun 18 20:49:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jul 16 18:01:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jul 24 23:17:03 IST 2025</t>
+  </si>
+  <si>
+    <t>First Name:,Imtiaz,
+Last Name:,Ahmed,
+Routing Number:,****2691,
+Account Number:,****5489,
+Billing Address:,1853 Mandan Terace,
+Greenbelt, Maryland MD 20770,
+Country:,UNITED STATES,
+Account Type:,Personal Checking,
+click here</t>
+  </si>
+  <si>
+    <t>Company Name:,Vaddahun Corp,
+First Name:,	Imtiaz,
+Last Name:,	Ahmed,
+Business Tax ID:,	999999999,
+Routing Number:,	****4974,
+Account Number:,	****7002,
+Billing Address:,	1853 Mandan Terace,
+Greenbelt, Maryland MD 20770,
+Country:,	UNITED STATES,
+Account Type:,	Business Checking,
+ click here</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>Wed Jun 18 20:49:13 IST 2025</t>
+    <t>Thu Jul 24 23:29:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jul 24 23:31:12 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -2002,8 +2037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E68741B-6F05-455D-9A92-FE831FDDA104}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection sqref="A1:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2275,7 +2310,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -2382,7 +2417,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -2474,7 +2509,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -2508,7 +2543,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C37C3328-39C9-41FD-9DB4-ADF86208FC39}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
@@ -2551,7 +2586,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -2582,6 +2617,87 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3A691B-8A11-403A-A18C-0B3D16CACD43}">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection sqref="A1:K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row ht="29" r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row ht="409.5" r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="13">
+        <v>1</v>
+      </c>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13">
+        <v>1</v>
+      </c>
+      <c r="J2" s="13">
+        <v>6</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37656D7C-21ED-46B0-BCCF-CB4452FF881C}">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -2628,7 +2744,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -2651,6 +2767,87 @@
       </c>
       <c r="J2" s="3">
         <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFDC152B-B1BC-4655-9345-694EE576670D}">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row ht="29" r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row ht="409.5" r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="13">
+        <v>1</v>
+      </c>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13">
+        <v>1</v>
+      </c>
+      <c r="J2" s="13">
+        <v>6</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/KatalonData/ABPTestData/PaymentsACH.xlsx
+++ b/KatalonData/ABPTestData/PaymentsACH.xlsx
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="174">
   <si>
     <t>Result</t>
   </si>
@@ -827,6 +827,15 @@
   </si>
   <si>
     <t>Thu Sep 25 14:07:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Oct 03 21:34:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Oct 03 21:37:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Oct 08 21:18:26 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -3257,10 +3266,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -4793,10 +4802,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">

--- a/KatalonData/ABPTestData/PaymentsACH.xlsx
+++ b/KatalonData/ABPTestData/PaymentsACH.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t476640\Documents\VPS-Katalon\KatalonData\ABPTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{23C8AE06-2DA8-4DBA-817F-D522A5967423}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{35A7081D-9E35-460D-A44D-365F61D2A9EE}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView activeTab="38" firstSheet="38" windowHeight="10300" windowWidth="19420" xWindow="-110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-110"/>
+    <workbookView activeTab="18" firstSheet="18" windowHeight="10300" windowWidth="19420" xWindow="-110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-110"/>
   </bookViews>
   <sheets>
     <sheet name="VerifySuccessfulPaymentPSNoCF" r:id="rId1" sheetId="1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="119">
   <si>
     <t>Result</t>
   </si>
@@ -109,9 +109,6 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>Wed May 14 18:35:49 IST 2025</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
@@ -121,46 +118,16 @@
     <t>1</t>
   </si>
   <si>
-    <t>Fri May 16 20:55:55 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri May 16 20:57:07 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri May 16 20:59:48 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue May 20 17:23:06 IST 2025</t>
-  </si>
-  <si>
     <t>VTFees</t>
   </si>
   <si>
     <t>VTAmount</t>
   </si>
   <si>
-    <t>Tue May 20 17:27:43 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue May 20 17:50:33 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue May 20 17:53:04 IST 2025</t>
-  </si>
-  <si>
     <t>Fail</t>
   </si>
   <si>
     <t>VTList</t>
-  </si>
-  <si>
-    <t>Tue May 27 18:26:35 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue May 27 18:27:07 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue May 27 18:41:43 IST 2025</t>
   </si>
   <si>
     <t>Payment Receipt,180RemittanceID:,Due Date,Payment Entry Date,Amount Due,Amount to Pay,ImtiazABPdoubleCFBills,EST,UDF1:,UDF2:,UDF3:,UDF4:,Fees,
@@ -170,19 +137,10 @@
     <t>N</t>
   </si>
   <si>
-    <t>Wed May 28 11:32:27 IST 2025</t>
-  </si>
-  <si>
     <t>Payment Receipt,180RemittanceID:,Due Date,Payment Entry Date,Amount Due,Amount to Pay,UDF1:,UDF2:,UDF3:,UDF4:,Fees,Total Processed:,Total Unpaid:,
 Payment Method,First Name:,	Last Name:,	Routing Number:,Account Number:,Billing Address:,Country:,Account Type:</t>
   </si>
   <si>
-    <t>Thu May 29 12:29:36 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 29 12:59:46 IST 2025</t>
-  </si>
-  <si>
     <t>Payment Preview,Bills Label,Due Date,Pay Date,Amount Due,Amount to Pay,Fees,Total:,
 Business Checking Information,Company Name:,First Name:,Last Name:,Routing Number:,Account Number:,Business Tax ID:,ImtiazABPdoubleCFBills</t>
   </si>
@@ -195,15 +153,6 @@
 Personal Checking Information,First Name:,Last Name:,Routing Number:,Account Number:,ImtiazABPdoubleCFBills</t>
   </si>
   <si>
-    <t>Thu May 29 18:40:26 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 29 18:41:17 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 29 19:01:03 IST 2025</t>
-  </si>
-  <si>
     <t>CardID</t>
   </si>
   <si>
@@ -229,57 +178,6 @@
   </si>
   <si>
     <t>CAROLYN LINEBERGER</t>
-  </si>
-  <si>
-    <t>Step 2: Select or Create a Payment Method
-Payment Type: *,Personal Checking,Save payment method for future use,
-Nickname: *	,
-Bank Account Information,
-First Name: *,	
-Last Name: *,	
-Routing Number: *,	
-Account Number: *,	
-Confirm Account Number: *,Billing Address:,
-Address Line 1: *,	
-Address Line 2:,   	
-Country: *,	
-ZIP: *	,
-City: ,  	
-State :,   	
-click hereAddress Line 1: *,	
-Address Line 2:,   	
-Country: *,	
-ZIP: *	,
-City: ,  	
-State : ,  	
-click here</t>
-  </si>
-  <si>
-    <t>Step 2: Select or Create a Payment Method,
-Payment Type: *,
-Business Checking,Save payment method for future use,
-Nickname: *,	
-Bank Account Information,
-Company Name: *	,
-First Name:,	
-Last Name:,	
-Business Tax ID:,	
-Routing Number: *,	
-Account Number: *,	
-Confirm Account Number: *,Billing Address:,
-Address Line 1: *,	
-Address Line 2:,   	
-Country: *,	
-ZIP: *	,
-City: ,  	
-State :,   	
-click hereAddress Line 1: *,	
-Address Line 2:,   	
-Country: *,	
-ZIP: *	,
-City: ,  	
-State : ,  	
-click here</t>
   </si>
   <si>
     <t>Personal Savings,
@@ -296,29 +194,11 @@
 United States</t>
   </si>
   <si>
-    <t>Mon Jun 16 14:03:00 IST 2025</t>
-  </si>
-  <si>
     <t>Business Checking,
 ****5489,Billing Address:,
 1853 Mandan Terace,
 CATAWBA,  North Carolina ,  20770
 United States</t>
-  </si>
-  <si>
-    <t>Mon Jun 16 17:19:20 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Jun 18 18:53:04 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Jun 18 20:26:37 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Jun 18 20:49:13 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Jul 16 18:01:28 IST 2025</t>
   </si>
   <si>
     <t>First Name:,Imtiaz,
@@ -345,9 +225,6 @@
  click here</t>
   </si>
   <si>
-    <t>Thu Jul 24 23:29:06 IST 2025</t>
-  </si>
-  <si>
     <t>Wed Aug 20 22:00:18 IST 2025</t>
   </si>
   <si>
@@ -381,12 +258,6 @@
 Greenbelt, Maryland MD 20770,
 Country:,	UNITED STATES,
 Account Type:,	Personal Savings,click here</t>
-  </si>
-  <si>
-    <t>Wed Sep 03 19:55:18 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Sep 03 19:57:12 IST 2025</t>
   </si>
   <si>
     <t>DivideYourPaymentPlan</t>
@@ -607,235 +478,200 @@
     <t>Mon Sep 15 12:59:43 IST 2025</t>
   </si>
   <si>
+    <t>Tue Oct 14 16:42:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Oct 14 16:42:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Oct 14 16:44:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Oct 14 16:44:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Oct 14 16:45:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Oct 14 16:46:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Oct 14 16:46:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Oct 14 16:47:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Oct 14 17:05:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Oct 14 17:06:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Oct 14 17:08:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Oct 14 17:11:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Oct 14 17:11:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Oct 14 17:14:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Oct 14 17:17:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Oct 14 17:17:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Oct 14 17:20:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Oct 14 17:26:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Oct 14 17:32:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Oct 14 17:33:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Oct 14 17:33:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Oct 14 23:52:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Oct 14 23:53:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Oct 14 23:59:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Oct 15 00:04:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Oct 15 00:07:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Payment Receipt,180RemittanceID:,Due Date,Payment Entry Date,Amount Due,Amount to Pay,ImtiazABPdoubleCFBills,EST,UDF1:,UDF2:,UDF3:,UDF4:,Fees,
+Payment Method,Company Name:,First Name:,Last Name:,Routing Number:,Account Number:,Business Tax ID:,Billing Address:,Country:,Account Type:,</t>
+  </si>
+  <si>
+    <t>Wed Oct 15 00:39:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Oct 15 00:44:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Oct 15 00:46:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Step 2: Select or Create a Payment Method,
+Payment Type: *,
+Business Checking,Save payment method for future use,
+Nickname: *,	
+Bank Account Information,
+Company Name: *	,
+First Name:,	
+Last Name:,	
+Business Tax ID:,	
+Routing Number: *,	
+Account Number: *,	
+Confirm Account Number: *,Billing Address:,
+Address Line 1: *,	
+Address Line 2:,   	
+Country: *,	
+ZIP: *	,
+City: ,  	
+State :,   	
+Address Line 1: *,	
+Address Line 2:,   	
+Country: *,	
+ZIP: *	,
+City: ,  	
+State : ,  	
+click here,</t>
+  </si>
+  <si>
+    <t>Step 2: Select or Create a Payment Method
+Payment Type: *,Personal Checking,Save payment method for future use,
+Nickname: *	,
+Bank Account Information,
+First Name: *,	
+Last Name: *,	
+Routing Number: *,	
+Account Number: *,	
+Confirm Account Number: *,Billing Address:,
+Address Line 1: *,	
+Address Line 2:,   	
+Country: *,	
+ZIP: *	,
+City: ,  	
+State :,   	
+Address Line 1: *,	
+Address Line 2:,   	
+Country: *,	
+ZIP: *	,
+City: ,  	
+State : ,  	
+click here</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>Fri Sep 19 20:44:26 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Sep 19 20:47:49 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Sep 19 20:48:43 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Sep 19 20:49:30 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Sep 19 20:52:00 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Sep 19 20:53:03 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Sep 19 20:54:08 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Sep 19 20:55:17 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Sep 19 21:22:08 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Sep 19 21:23:14 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Sep 19 21:25:58 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Sep 19 21:28:41 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Sep 19 21:29:45 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Sep 19 21:32:25 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Sep 19 21:35:08 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Sep 19 21:36:12 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Sep 19 21:38:45 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Sep 19 21:42:29 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Sep 19 21:43:36 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Sep 19 21:44:42 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Sep 19 21:52:03 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Sep 19 21:52:34 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Sep 19 21:53:04 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Sep 24 16:29:20 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Sep 24 16:30:14 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Sep 24 16:31:06 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Sep 24 16:33:06 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Sep 24 16:33:37 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Sep 24 16:34:12 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Sep 24 16:34:47 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Sep 24 16:35:57 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Sep 24 16:36:31 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Sep 24 16:36:58 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Sep 24 16:57:24 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Sep 24 16:57:54 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Sep 24 17:00:37 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Sep 24 17:03:22 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Sep 24 17:03:53 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Sep 24 17:06:44 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Sep 24 17:09:27 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Sep 24 17:09:58 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Sep 24 17:12:32 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Sep 24 17:16:21 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Sep 24 17:17:26 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Sep 24 17:18:37 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Sep 24 17:26:35 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Sep 24 17:27:05 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Sep 24 17:27:37 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Sep 25 13:10:57 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Sep 25 13:11:49 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Sep 25 13:12:42 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Sep 25 13:14:43 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Sep 25 13:15:18 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Sep 25 13:15:49 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Sep 25 13:16:23 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Sep 25 13:17:28 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Sep 25 13:18:01 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Sep 25 13:18:29 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Sep 25 13:39:02 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Sep 25 13:39:33 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Sep 25 13:42:05 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Sep 25 13:44:39 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Sep 25 13:45:14 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Sep 25 13:47:48 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Sep 25 13:50:18 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Sep 25 13:50:51 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Sep 25 13:53:36 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Sep 25 13:57:26 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Sep 25 13:58:28 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Sep 25 13:59:32 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Sep 25 14:06:45 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Sep 25 14:07:16 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Sep 25 14:07:46 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Oct 03 21:34:47 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Oct 03 21:37:05 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Oct 08 21:18:26 IST 2025</t>
+    <t>Wed Oct 15 19:33:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Oct 15 19:34:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Oct 15 19:35:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Oct 15 19:37:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Oct 15 19:38:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Oct 15 19:38:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Oct 15 19:39:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Oct 15 19:40:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Oct 15 19:40:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Oct 15 19:42:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Oct 15 19:42:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Oct 15 19:43:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Oct 15 20:01:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Oct 15 20:02:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Oct 15 20:04:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Oct 15 20:07:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Oct 15 20:08:27 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -1298,17 +1134,17 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>163</v>
+        <v>84</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="G2" s="3">
         <v>1</v>
@@ -1374,28 +1210,28 @@
         <v>9</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>152</v>
+        <v>107</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="G2" s="3">
         <v>1</v>
@@ -1483,28 +1319,28 @@
         <v>9</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>151</v>
+        <v>106</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="G2" s="3">
         <v>1</v>
@@ -1535,7 +1371,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:L3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1575,28 +1411,28 @@
         <v>9</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>149</v>
+        <v>93</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="G2" s="3">
         <v>1</v>
@@ -1619,19 +1455,19 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>150</v>
+        <v>105</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="G3" s="3">
         <v>1</v>
@@ -1662,10 +1498,13 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection sqref="A1:M2"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="13" max="13" customWidth="true" width="28.36328125" collapsed="true"/>
+  </cols>
   <sheetData>
     <row ht="29" r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -1699,31 +1538,31 @@
         <v>9</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row ht="409.5" r="2" spans="1:13" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row ht="188.5" r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="G2" s="3">
         <v>1</v>
@@ -1744,25 +1583,25 @@
         <v>10</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row ht="188.5" r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="G3" s="3">
         <v>1</v>
       </c>
@@ -1780,6 +1619,9 @@
       </c>
       <c r="L3" s="5">
         <v>10</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1832,13 +1674,13 @@
         <v>9</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row ht="261" r="2" spans="1:13" x14ac:dyDescent="0.35">
@@ -1846,18 +1688,18 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>113</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>14</v>
-      </c>
       <c r="G2" s="9">
         <v>1</v>
       </c>
@@ -1877,7 +1719,7 @@
         <v>10</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1927,13 +1769,13 @@
         <v>9</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row ht="409.5" r="2" spans="1:13" x14ac:dyDescent="0.35">
@@ -1941,18 +1783,18 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>112</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>14</v>
-      </c>
       <c r="G2" s="9">
         <v>1</v>
       </c>
@@ -1972,7 +1814,7 @@
         <v>10</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2022,13 +1864,13 @@
         <v>9</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row ht="377" r="2" spans="1:13" x14ac:dyDescent="0.35">
@@ -2036,18 +1878,18 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>14</v>
-      </c>
       <c r="G2" s="9">
         <v>1</v>
       </c>
@@ -2067,7 +1909,7 @@
         <v>10</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -2117,13 +1959,13 @@
         <v>9</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row ht="377" r="2" spans="1:13" x14ac:dyDescent="0.35">
@@ -2131,18 +1973,18 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>155</v>
+        <v>110</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>14</v>
-      </c>
       <c r="G2" s="9">
         <v>1</v>
       </c>
@@ -2162,7 +2004,7 @@
         <v>10</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -2212,13 +2054,13 @@
         <v>9</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row ht="409.5" r="2" spans="1:13" x14ac:dyDescent="0.35">
@@ -2226,17 +2068,17 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>108</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="G2" s="3">
         <v>1</v>
@@ -2257,7 +2099,7 @@
         <v>10</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2269,12 +2111,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C0D33A-2EC8-4BF6-B54B-4E680640D2E6}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="11" max="11" customWidth="true" width="29.1796875" collapsed="true"/>
     <col min="15" max="15" bestFit="true" customWidth="true" width="19.453125" collapsed="true"/>
   </cols>
   <sheetData>
@@ -2304,43 +2147,43 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="M1" s="4" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row ht="409.5" r="2" spans="1:15" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row ht="377" r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="G2" s="13">
         <v>1</v>
@@ -2353,19 +2196,19 @@
         <v>6</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="M2" s="11">
         <v>28609</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2420,17 +2263,17 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>164</v>
+        <v>85</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="G2" s="3">
         <v>1</v>
@@ -2460,6 +2303,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="11" max="11" customWidth="true" width="22.453125" collapsed="true"/>
     <col min="15" max="15" bestFit="true" customWidth="true" width="19.453125" collapsed="true"/>
   </cols>
   <sheetData>
@@ -2489,43 +2333,43 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="M1" s="4" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row ht="409.5" r="2" spans="1:15" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row ht="406" r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="G2" s="13">
         <v>1</v>
@@ -2538,19 +2382,19 @@
         <v>6</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="M2" s="11">
         <v>28609</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2563,11 +2407,12 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection sqref="A1:K2"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="11" max="11" customWidth="true" width="29.90625" collapsed="true"/>
     <col min="15" max="15" bestFit="true" customWidth="true" width="19.453125" collapsed="true"/>
   </cols>
   <sheetData>
@@ -2597,43 +2442,43 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="M1" s="4" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row ht="409.5" r="2" spans="1:15" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row ht="406" r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="G2" s="13">
         <v>1</v>
@@ -2646,19 +2491,19 @@
         <v>6</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="M2" s="11">
         <v>28609</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2671,7 +2516,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:O2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2708,19 +2553,19 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
     </row>
     <row ht="203" r="2" spans="1:15" x14ac:dyDescent="0.35">
@@ -2728,18 +2573,18 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>148</v>
+        <v>104</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="G2" s="3">
         <v>1</v>
       </c>
@@ -2747,25 +2592,25 @@
         <v>1</v>
       </c>
       <c r="I2" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J2" s="3">
         <v>6</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="M2" s="14">
         <v>28609</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2778,7 +2623,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:O2"/>
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2815,19 +2660,19 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
     </row>
     <row ht="203" r="2" spans="1:15" x14ac:dyDescent="0.35">
@@ -2835,18 +2680,18 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>147</v>
+        <v>103</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="G2" s="3">
         <v>1</v>
       </c>
@@ -2854,25 +2699,25 @@
         <v>1</v>
       </c>
       <c r="I2" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J2" s="3">
         <v>6</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="M2" s="14">
         <v>28609</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2885,7 +2730,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2922,19 +2767,19 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
     </row>
     <row ht="203" r="2" spans="1:15" x14ac:dyDescent="0.35">
@@ -2942,18 +2787,18 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>146</v>
+        <v>102</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="G2" s="3">
         <v>1</v>
       </c>
@@ -2961,25 +2806,25 @@
         <v>3</v>
       </c>
       <c r="I2" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J2" s="3">
         <v>6</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="M2" s="14">
         <v>28609</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -3031,20 +2876,20 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>166</v>
+        <v>98</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="G2" s="3">
         <v>1</v>
@@ -3108,20 +2953,20 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>167</v>
+        <v>86</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="G2" s="3">
         <v>1</v>
@@ -3177,13 +3022,13 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row ht="409.5" r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -3191,17 +3036,17 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>169</v>
+        <v>88</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="G2" s="13">
         <v>1</v>
@@ -3214,7 +3059,7 @@
         <v>6</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -3269,17 +3114,17 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>173</v>
+        <v>97</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="G2" s="3">
         <v>1</v>
@@ -3335,13 +3180,13 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row ht="409.5" r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -3349,17 +3194,17 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>168</v>
+        <v>87</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="G2" s="13">
         <v>1</v>
@@ -3372,7 +3217,7 @@
         <v>6</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3424,20 +3269,20 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>162</v>
+        <v>83</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="G2" s="3">
         <v>1</v>
@@ -3492,16 +3337,16 @@
         <v>5</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="I1" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="J1" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -3509,17 +3354,17 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="G2" t="str">
         <f xml:space="preserve"> "Carlos"</f>
@@ -3536,41 +3381,41 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="F3" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="G3" t="str">
         <f ref="G3:G4" si="0" t="shared" xml:space="preserve"> "Carlos"</f>
         <v>Carlos</v>
       </c>
       <c r="H3" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="I3" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="F4" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="G4" t="str">
         <f si="0" t="shared"/>
         <v>Carlos</v>
       </c>
       <c r="H4" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -3618,13 +3463,13 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row ht="159.5" r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -3632,17 +3477,17 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>170</v>
+        <v>89</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="G2" s="13">
         <v>1</v>
@@ -3655,7 +3500,7 @@
         <v>6</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -3697,19 +3542,19 @@
         <v>5</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="I1" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="J1" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>1</v>
@@ -3718,13 +3563,13 @@
         <v>4</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
     </row>
     <row ht="409.5" r="2" spans="1:16" x14ac:dyDescent="0.35">
@@ -3732,37 +3577,37 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="G2" t="str">
         <f>"Carlos"</f>
         <v>Carlos</v>
       </c>
       <c r="H2" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="J2" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="L2" s="7" t="str">
         <f ca="1">TEXT(TODAY(),"mm/dd/yyyy")</f>
-        <v>09/19/2025</v>
+        <v>10/15/2025</v>
       </c>
       <c r="M2" s="16">
         <v>10</v>
@@ -3794,7 +3639,7 @@
 Payment Plan Type:,	Installment Plan,
 Payment Plan Duration:,	Daily,
 Payment Plan Start Date:,	
-4. Payment Plan,1 Daily payment of $10.00 on 09/19/2025,A Convenience Fee will be added to each transaction issued for 1 Daily payment of 5.00 starting on 09/19/2025 ,Individual Convenience Fee Amount:,	
+4. Payment Plan,1 Daily payment of $10.00 on 10/15/2025,A Convenience Fee will be added to each transaction issued for 1 Daily payment of 5.00 starting on 10/15/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
@@ -3802,7 +3647,7 @@
         <f ca="1">"A Convenience Fee will be added to each transaction issued for 1 Daily payment of "&amp;  TEXT(N2,"0.00")&amp;" starting on "&amp;L2&amp;" ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:"</f>
-        <v>A Convenience Fee will be added to each transaction issued for 1 Daily payment of 5.00 starting on 09/19/2025 ,Individual Convenience Fee Amount:,	
+        <v>A Convenience Fee will be added to each transaction issued for 1 Daily payment of 5.00 starting on 10/15/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
@@ -3848,19 +3693,19 @@
         <v>5</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="I1" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="J1" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>1</v>
@@ -3869,13 +3714,13 @@
         <v>4</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
     </row>
     <row ht="409.5" r="2" spans="1:16" x14ac:dyDescent="0.35">
@@ -3883,37 +3728,37 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="G2" t="str">
         <f>"Carlos"</f>
         <v>Carlos</v>
       </c>
       <c r="H2" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="J2" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="L2" s="7" t="str">
         <f ca="1">TEXT(TODAY(),"mm/dd/yyyy")</f>
-        <v>09/19/2025</v>
+        <v>10/15/2025</v>
       </c>
       <c r="M2" s="16">
         <v>10</v>
@@ -3945,7 +3790,7 @@
 Payment Plan Type:,	Installment Plan,
 Payment Plan Duration:,	Daily,
 Payment Plan Start Date:,	
-4. Payment Plan,1 Daily payment of $10.00 on 09/19/2025,A Convenience Fee will be added to each transaction issued for 1 Daily payment of 5.00 starting on 09/19/2025 ,Individual Convenience Fee Amount:,	
+4. Payment Plan,1 Daily payment of $10.00 on 10/15/2025,A Convenience Fee will be added to each transaction issued for 1 Daily payment of 5.00 starting on 10/15/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
@@ -3953,7 +3798,7 @@
         <f ca="1">"A Convenience Fee will be added to each transaction issued for 1 Daily payment of "&amp;  TEXT(N2,"0.00")&amp;" starting on "&amp;L2&amp;" ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:"</f>
-        <v>A Convenience Fee will be added to each transaction issued for 1 Daily payment of 5.00 starting on 09/19/2025 ,Individual Convenience Fee Amount:,	
+        <v>A Convenience Fee will be added to each transaction issued for 1 Daily payment of 5.00 starting on 10/15/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
@@ -3993,19 +3838,19 @@
         <v>5</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="I1" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="J1" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>1</v>
@@ -4014,13 +3859,13 @@
         <v>4</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
     </row>
     <row ht="409.5" r="2" spans="1:16" x14ac:dyDescent="0.35">
@@ -4028,37 +3873,37 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="G2" t="str">
         <f>"Carlos"</f>
         <v>Carlos</v>
       </c>
       <c r="H2" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="J2" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="L2" s="7" t="str">
         <f ca="1">TEXT(TODAY(),"mm/dd/yyyy")</f>
-        <v>09/19/2025</v>
+        <v>10/15/2025</v>
       </c>
       <c r="M2" s="16">
         <v>10</v>
@@ -4090,7 +3935,7 @@
 Payment Plan Type:,	Installment Plan,
 Payment Plan Duration:,	Deferred,
 Payment Plan Start Date:,	
-4. Payment Plan,1 Deferred payment of $10.00 on 09/19/2025,A Convenience Fee will be added to each transaction issued for 1 Deferred payment of 5.00 starting on 09/19/2025 ,Individual Convenience Fee Amount:,	
+4. Payment Plan,1 Deferred payment of $10.00 on 10/15/2025,A Convenience Fee will be added to each transaction issued for 1 Deferred payment of 5.00 starting on 10/15/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
@@ -4098,7 +3943,7 @@
         <f ca="1">"A Convenience Fee will be added to each transaction issued for 1 Deferred payment of "&amp;  TEXT(N2,"0.00")&amp;" starting on "&amp;L2&amp;" ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:"</f>
-        <v>A Convenience Fee will be added to each transaction issued for 1 Deferred payment of 5.00 starting on 09/19/2025 ,Individual Convenience Fee Amount:,	
+        <v>A Convenience Fee will be added to each transaction issued for 1 Deferred payment of 5.00 starting on 10/15/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
@@ -4138,19 +3983,19 @@
         <v>5</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="I1" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="J1" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>1</v>
@@ -4159,13 +4004,13 @@
         <v>4</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
     </row>
     <row ht="409.5" r="2" spans="1:16" x14ac:dyDescent="0.35">
@@ -4173,37 +4018,37 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="G2" t="str">
         <f>"Carlos"</f>
         <v>Carlos</v>
       </c>
       <c r="H2" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="I2" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="J2" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="L2" s="7" t="str">
         <f ca="1">TEXT(TODAY(),"mm/dd/yyyy")</f>
-        <v>09/19/2025</v>
+        <v>10/15/2025</v>
       </c>
       <c r="M2" s="16">
         <v>10</v>
@@ -4235,7 +4080,7 @@
 Payment Plan Type:,	Recurring,
 Payment Plan Duration:,	Deferred,
 Payment Plan Start Date:,	
-4. Payment Plan,1 Deferred payment of $10.00 on 09/19/2025,A Convenience Fee will be added to each transaction issued for 1 Deferred payment of 5.00 starting on 09/19/2025 ,Individual Convenience Fee Amount:,	
+4. Payment Plan,1 Deferred payment of $10.00 on 10/15/2025,A Convenience Fee will be added to each transaction issued for 1 Deferred payment of 5.00 starting on 10/15/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
@@ -4243,7 +4088,7 @@
         <f ca="1">"A Convenience Fee will be added to each transaction issued for 1 Deferred payment of "&amp;  TEXT(N2,"0.00")&amp;" starting on "&amp;L2&amp;" ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:"</f>
-        <v>A Convenience Fee will be added to each transaction issued for 1 Deferred payment of 5.00 starting on 09/19/2025 ,Individual Convenience Fee Amount:,	
+        <v>A Convenience Fee will be added to each transaction issued for 1 Deferred payment of 5.00 starting on 10/15/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
@@ -4283,19 +4128,19 @@
         <v>5</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="I1" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="J1" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>1</v>
@@ -4304,13 +4149,13 @@
         <v>4</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
     </row>
     <row ht="409.5" r="2" spans="1:16" x14ac:dyDescent="0.35">
@@ -4318,37 +4163,37 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="G2" t="str">
         <f>"Carlos"</f>
         <v>Carlos</v>
       </c>
       <c r="H2" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="I2" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="J2" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="L2" s="7" t="str">
         <f ca="1">TEXT(TODAY(),"mm/dd/yyyy")</f>
-        <v>09/19/2025</v>
+        <v>10/15/2025</v>
       </c>
       <c r="M2" s="16">
         <v>10</v>
@@ -4380,7 +4225,7 @@
 Payment Plan Type:,	Recurring,
 Payment Plan Duration:,	Daily,
 Payment Plan Start Date:,	
-4. Payment Plan, Daily payment of $10.00 starting on 09/19/2025,A Convenience Fee will be added to each transaction issued for Daily payment of 5.00 starting on 09/19/2025 ,Individual Convenience Fee Amount:,	
+4. Payment Plan, Daily payment of $10.00 starting on 10/15/2025,A Convenience Fee will be added to each transaction issued for Daily payment of 5.00 starting on 10/15/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
@@ -4388,7 +4233,7 @@
         <f ca="1">"A Convenience Fee will be added to each transaction issued for Daily payment of "&amp;  TEXT(N2,"0.00")&amp;" starting on "&amp;L2&amp;" ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:"</f>
-        <v>A Convenience Fee will be added to each transaction issued for Daily payment of 5.00 starting on 09/19/2025 ,Individual Convenience Fee Amount:,	
+        <v>A Convenience Fee will be added to each transaction issued for Daily payment of 5.00 starting on 10/15/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
@@ -4428,19 +4273,19 @@
         <v>5</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="I1" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="J1" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>1</v>
@@ -4449,13 +4294,13 @@
         <v>4</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
     </row>
     <row ht="409.5" r="2" spans="1:16" x14ac:dyDescent="0.35">
@@ -4463,37 +4308,37 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="G2" t="str">
         <f>"Carlos"</f>
         <v>Carlos</v>
       </c>
       <c r="H2" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="I2" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="J2" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="L2" s="7" t="str">
         <f ca="1">TEXT(TODAY(),"mm/dd/yyyy")</f>
-        <v>09/19/2025</v>
+        <v>10/15/2025</v>
       </c>
       <c r="M2" s="16">
         <v>10</v>
@@ -4549,19 +4394,19 @@
         <v>5</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="I1" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="J1" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>1</v>
@@ -4570,13 +4415,13 @@
         <v>4</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
     </row>
     <row ht="409.5" r="2" spans="1:16" x14ac:dyDescent="0.35">
@@ -4584,37 +4429,37 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="G2" t="str">
         <f>"Smith"</f>
         <v>Smith</v>
       </c>
       <c r="H2" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="I2" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="J2" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="L2" s="7" t="str">
         <f ca="1">TEXT(TODAY()+1,"mm/dd/yyyy")</f>
-        <v>09/20/2025</v>
+        <v>10/16/2025</v>
       </c>
       <c r="M2" s="16">
         <v>10</v>
@@ -4641,7 +4486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01DEB38C-C9EF-4355-A944-36732259D0F6}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -4670,19 +4515,19 @@
         <v>5</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="I1" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="J1" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>1</v>
@@ -4691,13 +4536,13 @@
         <v>4</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
     </row>
     <row ht="409.5" r="2" spans="1:16" x14ac:dyDescent="0.35">
@@ -4705,37 +4550,37 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="G2" t="str">
         <f>"CarlosJacinta"</f>
         <v>CarlosJacinta</v>
       </c>
       <c r="H2" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="I2" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="J2" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="L2" s="7" t="str">
         <f ca="1">TEXT(TODAY()+1,"mm/dd/yyyy")</f>
-        <v>09/20/2025</v>
+        <v>10/16/2025</v>
       </c>
       <c r="M2" s="16">
         <v>10</v>
@@ -4805,17 +4650,17 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>172</v>
+        <v>117</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="G2" s="3">
         <v>1</v>
@@ -4882,17 +4727,17 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>82</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="G2" s="3">
         <v>1</v>
@@ -4959,17 +4804,17 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>118</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="G2" s="3">
         <v>1</v>
@@ -5033,20 +4878,20 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>156</v>
+        <v>114</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="G2" s="3">
         <v>1</v>
@@ -5113,17 +4958,17 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>158</v>
+        <v>116</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="G2" s="3">
         <v>1</v>
@@ -5190,17 +5035,17 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>157</v>
+        <v>115</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="G2" s="3">
         <v>1</v>

--- a/KatalonData/ABPTestData/PaymentsACH.xlsx
+++ b/KatalonData/ABPTestData/PaymentsACH.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t476640\Documents\VPS-Katalon\KatalonData\ABPTestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t465179\Documents\git\VPS-Katalon\VPS-Katalon\KatalonData\ABPTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{35A7081D-9E35-460D-A44D-365F61D2A9EE}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{A116FDE8-4EA5-4D91-BF4C-B97657A687B9}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView activeTab="18" firstSheet="18" windowHeight="10300" windowWidth="19420" xWindow="-110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-110"/>
+    <workbookView activeTab="31" firstSheet="31" windowHeight="16776" windowWidth="30936" xWindow="69012" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
   </bookViews>
   <sheets>
     <sheet name="VerifySuccessfulPaymentPSNoCF" r:id="rId1" sheetId="1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="104">
   <si>
     <t>Result</t>
   </si>
@@ -306,9 +306,6 @@
 4. Payment Plan,1 Daily payment of $</t>
   </si>
   <si>
-    <t>Sun Sep 14 02:48:30 IST 2025</t>
-  </si>
-  <si>
     <t>Sun Sep 14 03:14:20 IST 2025</t>
   </si>
   <si>
@@ -478,45 +475,9 @@
     <t>Mon Sep 15 12:59:43 IST 2025</t>
   </si>
   <si>
-    <t>Tue Oct 14 16:42:19 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Oct 14 16:42:51 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Oct 14 16:44:03 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Oct 14 16:44:36 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Oct 14 16:45:07 IST 2025</t>
-  </si>
-  <si>
     <t>Tue Oct 14 16:46:22 IST 2025</t>
   </si>
   <si>
-    <t>Tue Oct 14 16:46:56 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Oct 14 16:47:26 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Oct 14 17:05:32 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Oct 14 17:06:01 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Oct 14 17:08:50 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Oct 14 17:11:29 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Oct 14 17:11:59 IST 2025</t>
-  </si>
-  <si>
     <t>Tue Oct 14 17:14:33 IST 2025</t>
   </si>
   <si>
@@ -541,26 +502,11 @@
     <t>Tue Oct 14 17:33:50 IST 2025</t>
   </si>
   <si>
-    <t>Tue Oct 14 23:52:09 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Oct 14 23:53:31 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Oct 14 23:59:58 IST 2025</t>
-  </si>
-  <si>
     <t>Wed Oct 15 00:04:17 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Oct 15 00:07:08 IST 2025</t>
   </si>
   <si>
     <t>Payment Receipt,180RemittanceID:,Due Date,Payment Entry Date,Amount Due,Amount to Pay,ImtiazABPdoubleCFBills,EST,UDF1:,UDF2:,UDF3:,UDF4:,Fees,
 Payment Method,Company Name:,First Name:,Last Name:,Routing Number:,Account Number:,Business Tax ID:,Billing Address:,Country:,Account Type:,</t>
-  </si>
-  <si>
-    <t>Wed Oct 15 00:39:59 IST 2025</t>
   </si>
   <si>
     <t>Wed Oct 15 00:44:30 IST 2025</t>
@@ -620,58 +566,67 @@
 click here</t>
   </si>
   <si>
+    <t>Wed Oct 15 19:33:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Oct 15 19:34:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Oct 15 19:35:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Oct 15 19:37:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Oct 15 19:38:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Oct 15 19:38:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Oct 15 19:39:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Oct 15 19:40:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Oct 15 19:40:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Oct 15 19:42:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Oct 15 19:42:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Oct 15 19:43:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Oct 15 20:01:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Oct 15 20:02:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Oct 15 20:04:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Oct 15 20:07:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Oct 15 20:08:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Nov 08 11:59:11 EST 2025</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>Wed Oct 15 19:33:58 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Oct 15 19:34:49 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Oct 15 19:35:38 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Oct 15 19:37:32 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Oct 15 19:38:03 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Oct 15 19:38:35 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Oct 15 19:39:40 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Oct 15 19:40:14 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Oct 15 19:40:45 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Oct 15 19:42:01 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Oct 15 19:42:37 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Oct 15 19:43:10 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Oct 15 20:01:42 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Oct 15 20:02:15 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Oct 15 20:04:53 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Oct 15 20:07:44 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Oct 15 20:08:27 IST 2025</t>
+    <t>Sat Nov 08 12:08:37 EST 2025</t>
+  </si>
+  <si>
+    <t>Sat Nov 08 12:41:26 EST 2025</t>
   </si>
 </sst>
 </file>
@@ -1134,7 +1089,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -1221,7 +1176,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -1330,7 +1285,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -1422,7 +1377,7 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -1458,7 +1413,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
@@ -1552,7 +1507,7 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -1591,7 +1546,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
@@ -1621,7 +1576,7 @@
         <v>10</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1688,7 +1643,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -1783,7 +1738,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -1878,7 +1833,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -1973,7 +1928,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -2068,7 +2023,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -2111,7 +2066,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C0D33A-2EC8-4BF6-B54B-4E680640D2E6}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
@@ -2196,7 +2151,7 @@
         <v>6</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="L2" s="11" t="s">
         <v>30</v>
@@ -2263,7 +2218,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -2382,7 +2337,7 @@
         <v>6</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="L2" s="11" t="s">
         <v>30</v>
@@ -2491,7 +2446,7 @@
         <v>6</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="L2" s="11" t="s">
         <v>30</v>
@@ -2573,7 +2528,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -2680,7 +2635,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -2787,7 +2742,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -2879,7 +2834,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -2956,7 +2911,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -3036,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="12" t="s">
@@ -3114,7 +3069,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -3194,7 +3149,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="12" t="s">
@@ -3272,7 +3227,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -3477,7 +3432,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="12" t="s">
@@ -3512,8 +3467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F55622C3-FD59-462E-B48B-E29C12630952}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3577,7 +3532,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="12" t="s">
@@ -3607,7 +3562,7 @@
       </c>
       <c r="L2" s="7" t="str">
         <f ca="1">TEXT(TODAY(),"mm/dd/yyyy")</f>
-        <v>10/15/2025</v>
+        <v>11/08/2025</v>
       </c>
       <c r="M2" s="16">
         <v>10</v>
@@ -3639,7 +3594,7 @@
 Payment Plan Type:,	Installment Plan,
 Payment Plan Duration:,	Daily,
 Payment Plan Start Date:,	
-4. Payment Plan,1 Daily payment of $10.00 on 10/15/2025,A Convenience Fee will be added to each transaction issued for 1 Daily payment of 5.00 starting on 10/15/2025 ,Individual Convenience Fee Amount:,	
+4. Payment Plan,1 Daily payment of $10.00 on 11/08/2025,A Convenience Fee will be added to each transaction issued for 1 Daily payment of 5.00 starting on 11/08/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
@@ -3647,7 +3602,7 @@
         <f ca="1">"A Convenience Fee will be added to each transaction issued for 1 Daily payment of "&amp;  TEXT(N2,"0.00")&amp;" starting on "&amp;L2&amp;" ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:"</f>
-        <v>A Convenience Fee will be added to each transaction issued for 1 Daily payment of 5.00 starting on 10/15/2025 ,Individual Convenience Fee Amount:,	
+        <v>A Convenience Fee will be added to each transaction issued for 1 Daily payment of 5.00 starting on 11/08/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
@@ -3661,8 +3616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2219A53-CA02-4D9A-9DD5-DA00AC5C4A23}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="E2" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:P2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3728,7 +3683,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="12" t="s">
@@ -3758,7 +3713,7 @@
       </c>
       <c r="L2" s="7" t="str">
         <f ca="1">TEXT(TODAY(),"mm/dd/yyyy")</f>
-        <v>10/15/2025</v>
+        <v>11/08/2025</v>
       </c>
       <c r="M2" s="16">
         <v>10</v>
@@ -3790,7 +3745,7 @@
 Payment Plan Type:,	Installment Plan,
 Payment Plan Duration:,	Daily,
 Payment Plan Start Date:,	
-4. Payment Plan,1 Daily payment of $10.00 on 10/15/2025,A Convenience Fee will be added to each transaction issued for 1 Daily payment of 5.00 starting on 10/15/2025 ,Individual Convenience Fee Amount:,	
+4. Payment Plan,1 Daily payment of $10.00 on 11/08/2025,A Convenience Fee will be added to each transaction issued for 1 Daily payment of 5.00 starting on 11/08/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
@@ -3798,7 +3753,7 @@
         <f ca="1">"A Convenience Fee will be added to each transaction issued for 1 Daily payment of "&amp;  TEXT(N2,"0.00")&amp;" starting on "&amp;L2&amp;" ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:"</f>
-        <v>A Convenience Fee will be added to each transaction issued for 1 Daily payment of 5.00 starting on 10/15/2025 ,Individual Convenience Fee Amount:,	
+        <v>A Convenience Fee will be added to each transaction issued for 1 Daily payment of 5.00 starting on 11/08/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
@@ -3812,8 +3767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F61DCC56-CE37-4DAE-9D92-37CB9C481C7F}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection sqref="A1:P2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3873,7 +3828,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="12" t="s">
@@ -3893,17 +3848,17 @@
         <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J2" t="s">
         <v>53</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L2" s="7" t="str">
         <f ca="1">TEXT(TODAY(),"mm/dd/yyyy")</f>
-        <v>10/15/2025</v>
+        <v>11/08/2025</v>
       </c>
       <c r="M2" s="16">
         <v>10</v>
@@ -3935,7 +3890,7 @@
 Payment Plan Type:,	Installment Plan,
 Payment Plan Duration:,	Deferred,
 Payment Plan Start Date:,	
-4. Payment Plan,1 Deferred payment of $10.00 on 10/15/2025,A Convenience Fee will be added to each transaction issued for 1 Deferred payment of 5.00 starting on 10/15/2025 ,Individual Convenience Fee Amount:,	
+4. Payment Plan,1 Deferred payment of $10.00 on 11/08/2025,A Convenience Fee will be added to each transaction issued for 1 Deferred payment of 5.00 starting on 11/08/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
@@ -3943,7 +3898,7 @@
         <f ca="1">"A Convenience Fee will be added to each transaction issued for 1 Deferred payment of "&amp;  TEXT(N2,"0.00")&amp;" starting on "&amp;L2&amp;" ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:"</f>
-        <v>A Convenience Fee will be added to each transaction issued for 1 Deferred payment of 5.00 starting on 10/15/2025 ,Individual Convenience Fee Amount:,	
+        <v>A Convenience Fee will be added to each transaction issued for 1 Deferred payment of 5.00 starting on 11/08/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
@@ -3957,8 +3912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{811FF27C-D0FF-4DEB-9DD7-F2E87A7294CB}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4018,7 +3973,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="12" t="s">
@@ -4038,17 +3993,17 @@
         <v>42</v>
       </c>
       <c r="I2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J2" t="s">
         <v>53</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L2" s="7" t="str">
         <f ca="1">TEXT(TODAY(),"mm/dd/yyyy")</f>
-        <v>10/15/2025</v>
+        <v>11/08/2025</v>
       </c>
       <c r="M2" s="16">
         <v>10</v>
@@ -4080,7 +4035,7 @@
 Payment Plan Type:,	Recurring,
 Payment Plan Duration:,	Deferred,
 Payment Plan Start Date:,	
-4. Payment Plan,1 Deferred payment of $10.00 on 10/15/2025,A Convenience Fee will be added to each transaction issued for 1 Deferred payment of 5.00 starting on 10/15/2025 ,Individual Convenience Fee Amount:,	
+4. Payment Plan,1 Deferred payment of $10.00 on 11/08/2025,A Convenience Fee will be added to each transaction issued for 1 Deferred payment of 5.00 starting on 11/08/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
@@ -4088,7 +4043,7 @@
         <f ca="1">"A Convenience Fee will be added to each transaction issued for 1 Deferred payment of "&amp;  TEXT(N2,"0.00")&amp;" starting on "&amp;L2&amp;" ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:"</f>
-        <v>A Convenience Fee will be added to each transaction issued for 1 Deferred payment of 5.00 starting on 10/15/2025 ,Individual Convenience Fee Amount:,	
+        <v>A Convenience Fee will be added to each transaction issued for 1 Deferred payment of 5.00 starting on 11/08/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
@@ -4102,8 +4057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D06A526-F613-4F63-B541-7FF18EFD935D}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection sqref="A1:P2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4163,7 +4118,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="12" t="s">
@@ -4189,11 +4144,11 @@
         <v>53</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L2" s="7" t="str">
         <f ca="1">TEXT(TODAY(),"mm/dd/yyyy")</f>
-        <v>10/15/2025</v>
+        <v>11/08/2025</v>
       </c>
       <c r="M2" s="16">
         <v>10</v>
@@ -4225,7 +4180,7 @@
 Payment Plan Type:,	Recurring,
 Payment Plan Duration:,	Daily,
 Payment Plan Start Date:,	
-4. Payment Plan, Daily payment of $10.00 starting on 10/15/2025,A Convenience Fee will be added to each transaction issued for Daily payment of 5.00 starting on 10/15/2025 ,Individual Convenience Fee Amount:,	
+4. Payment Plan, Daily payment of $10.00 starting on 11/08/2025,A Convenience Fee will be added to each transaction issued for Daily payment of 5.00 starting on 11/08/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
@@ -4233,7 +4188,7 @@
         <f ca="1">"A Convenience Fee will be added to each transaction issued for Daily payment of "&amp;  TEXT(N2,"0.00")&amp;" starting on "&amp;L2&amp;" ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:"</f>
-        <v>A Convenience Fee will be added to each transaction issued for Daily payment of 5.00 starting on 10/15/2025 ,Individual Convenience Fee Amount:,	
+        <v>A Convenience Fee will be added to each transaction issued for Daily payment of 5.00 starting on 11/08/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
@@ -4247,8 +4202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02109C6A-9E4E-4705-AE64-D5133AE96048}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4308,7 +4263,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="12" t="s">
@@ -4334,11 +4289,11 @@
         <v>53</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L2" s="7" t="str">
         <f ca="1">TEXT(TODAY(),"mm/dd/yyyy")</f>
-        <v>10/15/2025</v>
+        <v>11/08/2025</v>
       </c>
       <c r="M2" s="16">
         <v>10</v>
@@ -4429,7 +4384,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="12" t="s">
@@ -4455,11 +4410,11 @@
         <v>53</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L2" s="7" t="str">
         <f ca="1">TEXT(TODAY()+1,"mm/dd/yyyy")</f>
-        <v>10/16/2025</v>
+        <v>11/09/2025</v>
       </c>
       <c r="M2" s="16">
         <v>10</v>
@@ -4550,7 +4505,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="12" t="s">
@@ -4576,11 +4531,11 @@
         <v>53</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L2" s="7" t="str">
         <f ca="1">TEXT(TODAY()+1,"mm/dd/yyyy")</f>
-        <v>10/16/2025</v>
+        <v>11/09/2025</v>
       </c>
       <c r="M2" s="16">
         <v>10</v>
@@ -4650,7 +4605,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -4727,7 +4682,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -4804,7 +4759,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -4881,7 +4836,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -4958,7 +4913,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -5035,7 +4990,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">

--- a/KatalonData/ABPTestData/PaymentsACH.xlsx
+++ b/KatalonData/ABPTestData/PaymentsACH.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t476640\Documents\VPS-Katalon\KatalonData\ABPTestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t470258\Documents\VPS-Katalon\KatalonData\ABPTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{35A7081D-9E35-460D-A44D-365F61D2A9EE}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{34A79CD5-3AD0-4B4B-B8F9-D74B1603A7D9}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView activeTab="18" firstSheet="18" windowHeight="10300" windowWidth="19420" xWindow="-110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-110"/>
+    <workbookView activeTab="31" firstSheet="30" windowHeight="11500" windowWidth="19420" xWindow="-110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-110"/>
   </bookViews>
   <sheets>
     <sheet name="VerifySuccessfulPaymentPSNoCF" r:id="rId1" sheetId="1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="110">
   <si>
     <t>Result</t>
   </si>
@@ -306,12 +306,6 @@
 4. Payment Plan,1 Daily payment of $</t>
   </si>
   <si>
-    <t>Sun Sep 14 02:48:30 IST 2025</t>
-  </si>
-  <si>
-    <t>Sun Sep 14 03:14:20 IST 2025</t>
-  </si>
-  <si>
     <t>Deferred</t>
   </si>
   <si>
@@ -340,9 +334,6 @@
 4. Payment Plan,1 Deferred payment of $</t>
   </si>
   <si>
-    <t>Sun Sep 14 03:24:22 IST 2025</t>
-  </si>
-  <si>
     <t>Scheduled Payment--View the Information,
 180RemittanceID: 918-152028,
 1. Review bill to pay,
@@ -387,40 +378,9 @@
 Country:,	UNITED STATES,
 Account Type:,	Personal Checking,
 3. Payment Plan Information,
-Payment Plan Type:,	Recurring,
-Payment Plan Duration:,	Daily,
-Payment Plan Start Date:,	
-4. Payment Plan, Daily payment of $</t>
-  </si>
-  <si>
-    <t>Sun Sep 14 03:42:17 IST 2025</t>
-  </si>
-  <si>
-    <t>Scheduled Payment--View the Information,
-180RemittanceID: 918-152028,
-1. Review bill to pay,
-Bills Label,	Due Date,	Date Submitted,	Date Modified,	Amount Due,	Amount to Pay,
-ImtiazABPdoubleCFBills,	 EST, 	
-UDF1:,	udf data 1,
-UDF2:,	udf data 2,
-UDF3:,	udf3,
-UDF4:,	udf data4,
-2. Payment Method,
-First Name:,	Imtiaz,
-Last Name:,	Ahmed,
-Routing Number:,	****2691,
-Account Number:	,****5489,
-Billing Address:,	1853 Mandan Terace,
-Greenbelt, Maryland MD 20770,
-Country:,	UNITED STATES,
-Account Type:,	Personal Checking,
-3. Payment Plan Information,
 Payment Plan Type:,	Automatic Payment 
 Payment Plan Start Date:,	
 4. Payment Plan, Amount due will be paid 3 calendar days before the Due Date</t>
-  </si>
-  <si>
-    <t>Sun Sep 14 04:01:46 IST 2025</t>
   </si>
   <si>
     <t>Scheduled Payment--View the Information,
@@ -472,101 +432,14 @@
 4. Payment Plan, Amount due will be paid 3 calendar days before the Due Date</t>
   </si>
   <si>
-    <t>Mon Sep 15 12:54:49 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Sep 15 12:59:43 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Oct 14 16:42:19 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Oct 14 16:42:51 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Oct 14 16:44:03 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Oct 14 16:44:36 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Oct 14 16:45:07 IST 2025</t>
-  </si>
-  <si>
     <t>Tue Oct 14 16:46:22 IST 2025</t>
   </si>
   <si>
-    <t>Tue Oct 14 16:46:56 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Oct 14 16:47:26 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Oct 14 17:05:32 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Oct 14 17:06:01 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Oct 14 17:08:50 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Oct 14 17:11:29 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Oct 14 17:11:59 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Oct 14 17:14:33 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Oct 14 17:17:14 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Oct 14 17:17:44 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Oct 14 17:20:26 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Oct 14 17:26:03 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Oct 14 17:32:44 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Oct 14 17:33:17 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Oct 14 17:33:50 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Oct 14 23:52:09 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Oct 14 23:53:31 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Oct 14 23:59:58 IST 2025</t>
-  </si>
-  <si>
     <t>Wed Oct 15 00:04:17 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Oct 15 00:07:08 IST 2025</t>
   </si>
   <si>
     <t>Payment Receipt,180RemittanceID:,Due Date,Payment Entry Date,Amount Due,Amount to Pay,ImtiazABPdoubleCFBills,EST,UDF1:,UDF2:,UDF3:,UDF4:,Fees,
 Payment Method,Company Name:,First Name:,Last Name:,Routing Number:,Account Number:,Business Tax ID:,Billing Address:,Country:,Account Type:,</t>
-  </si>
-  <si>
-    <t>Wed Oct 15 00:39:59 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Oct 15 00:44:30 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Oct 15 00:46:11 IST 2025</t>
   </si>
   <si>
     <t>Step 2: Select or Create a Payment Method,
@@ -620,58 +493,158 @@
 click here</t>
   </si>
   <si>
+    <t>Sun Oct 26 17:47:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Oct 26 19:09:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Oct 26 19:32:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Oct 30 09:33:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Oct 30 09:36:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Oct 30 09:37:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Oct 30 09:38:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Oct 30 09:39:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Oct 30 09:39:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Oct 30 09:40:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Oct 30 09:41:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Oct 30 09:41:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Oct 30 09:42:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Oct 30 10:15:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Oct 30 10:26:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Oct 30 10:35:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Oct 30 10:38:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Oct 30 10:47:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Oct 30 10:50:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Oct 30 10:50:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Oct 30 10:51:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Oct 30 10:58:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Oct 30 10:58:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Oct 30 10:59:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Oct 31 15:15:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Oct 31 16:14:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Oct 31 16:22:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Oct 31 20:56:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 03 22:19:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 03 22:43:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 12 21:41:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 13 21:13:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 13 21:20:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Scheduled Payment--View the Information,
+180RemittanceID: 918-152028,
+1. Review bill to pay,
+Bills Label,	Due Date,	Date Submitted,	Date Modified,	Amount Due,	Amount to Pay,
+ImtiazABPdoubleCFBills,	 EST, 	
+UDF1:,	udf data 1,
+UDF2:,	udf data 2,
+UDF3:,	udf3,
+UDF4:,	udf data4,
+2. Payment Method,
+First Name:,	Imtiaz,
+Last Name:,	Ahmed,
+Routing Number:,	****2691,
+Account Number:	,****5489,
+Billing Address:,	1853 Mandan Terace,
+Greenbelt, Maryland MD 20770,
+Country:,	UNITED STATES,
+Account Type:,	Personal Checking,
+3. Payment Plan Information,
+Payment Plan Type:,	Recurring,
+Payment Plan Duration:,	Daily,
+Payment Plan Start Date:,	
+4. Payment Plan, Daily payments of $</t>
+  </si>
+  <si>
+    <t>Thu Nov 13 22:05:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 17:11:27 IST 2025</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>Wed Oct 15 19:33:58 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Oct 15 19:34:49 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Oct 15 19:35:38 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Oct 15 19:37:32 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Oct 15 19:38:03 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Oct 15 19:38:35 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Oct 15 19:39:40 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Oct 15 19:40:14 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Oct 15 19:40:45 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Oct 15 19:42:01 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Oct 15 19:42:37 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Oct 15 19:43:10 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Oct 15 20:01:42 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Oct 15 20:02:15 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Oct 15 20:04:53 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Oct 15 20:07:44 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Oct 15 20:08:27 IST 2025</t>
+    <t>Mon Nov 17 18:54:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 22:35:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 22:36:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 22:38:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 22:53:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 22:55:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 22:56:05 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -1134,7 +1107,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -1221,7 +1194,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -1330,7 +1303,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -1422,7 +1395,7 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -1458,7 +1431,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
@@ -1552,7 +1525,7 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -1591,7 +1564,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
@@ -1621,7 +1594,7 @@
         <v>10</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1688,7 +1661,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -1783,7 +1756,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -1878,7 +1851,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -1973,7 +1946,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -2068,7 +2041,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -2111,7 +2084,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C0D33A-2EC8-4BF6-B54B-4E680640D2E6}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
@@ -2196,7 +2169,7 @@
         <v>6</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="L2" s="11" t="s">
         <v>30</v>
@@ -2263,7 +2236,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -2382,7 +2355,7 @@
         <v>6</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="L2" s="11" t="s">
         <v>30</v>
@@ -2491,7 +2464,7 @@
         <v>6</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="L2" s="11" t="s">
         <v>30</v>
@@ -2573,7 +2546,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -2680,7 +2653,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -2787,7 +2760,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -2879,7 +2852,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -3114,7 +3087,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -3272,7 +3245,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -3354,7 +3327,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="12" t="s">
@@ -3380,6 +3353,12 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>108</v>
+      </c>
       <c r="D3" s="12" t="s">
         <v>11</v>
       </c>
@@ -3401,6 +3380,12 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>109</v>
+      </c>
       <c r="D4" s="12" t="s">
         <v>11</v>
       </c>
@@ -3512,8 +3497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F55622C3-FD59-462E-B48B-E29C12630952}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3577,7 +3562,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="12" t="s">
@@ -3606,8 +3591,8 @@
         <v>54</v>
       </c>
       <c r="L2" s="7" t="str">
-        <f ca="1">TEXT(TODAY(),"mm/dd/yyyy")</f>
-        <v>10/15/2025</v>
+        <f ca="1">TEXT(TODAY()+1,"mm/dd/yyyy")</f>
+        <v>11/18/2025</v>
       </c>
       <c r="M2" s="16">
         <v>10</v>
@@ -3639,7 +3624,7 @@
 Payment Plan Type:,	Installment Plan,
 Payment Plan Duration:,	Daily,
 Payment Plan Start Date:,	
-4. Payment Plan,1 Daily payment of $10.00 on 10/15/2025,A Convenience Fee will be added to each transaction issued for 1 Daily payment of 5.00 starting on 10/15/2025 ,Individual Convenience Fee Amount:,	
+4. Payment Plan,1 Daily payment of $10.00 on 11/18/2025,A Convenience Fee will be added to each transaction issued for 1 Daily payment of 5.00 starting on 11/18/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
@@ -3647,7 +3632,7 @@
         <f ca="1">"A Convenience Fee will be added to each transaction issued for 1 Daily payment of "&amp;  TEXT(N2,"0.00")&amp;" starting on "&amp;L2&amp;" ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:"</f>
-        <v>A Convenience Fee will be added to each transaction issued for 1 Daily payment of 5.00 starting on 10/15/2025 ,Individual Convenience Fee Amount:,	
+        <v>A Convenience Fee will be added to each transaction issued for 1 Daily payment of 5.00 starting on 11/18/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
@@ -3661,8 +3646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2219A53-CA02-4D9A-9DD5-DA00AC5C4A23}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="E2" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:P2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3728,7 +3713,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="12" t="s">
@@ -3757,8 +3742,8 @@
         <v>54</v>
       </c>
       <c r="L2" s="7" t="str">
-        <f ca="1">TEXT(TODAY(),"mm/dd/yyyy")</f>
-        <v>10/15/2025</v>
+        <f ca="1">TEXT(TODAY()+1,"mm/dd/yyyy")</f>
+        <v>11/18/2025</v>
       </c>
       <c r="M2" s="16">
         <v>10</v>
@@ -3790,7 +3775,7 @@
 Payment Plan Type:,	Installment Plan,
 Payment Plan Duration:,	Daily,
 Payment Plan Start Date:,	
-4. Payment Plan,1 Daily payment of $10.00 on 10/15/2025,A Convenience Fee will be added to each transaction issued for 1 Daily payment of 5.00 starting on 10/15/2025 ,Individual Convenience Fee Amount:,	
+4. Payment Plan,1 Daily payment of $10.00 on 11/18/2025,A Convenience Fee will be added to each transaction issued for 1 Daily payment of 5.00 starting on 11/18/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
@@ -3798,7 +3783,7 @@
         <f ca="1">"A Convenience Fee will be added to each transaction issued for 1 Daily payment of "&amp;  TEXT(N2,"0.00")&amp;" starting on "&amp;L2&amp;" ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:"</f>
-        <v>A Convenience Fee will be added to each transaction issued for 1 Daily payment of 5.00 starting on 10/15/2025 ,Individual Convenience Fee Amount:,	
+        <v>A Convenience Fee will be added to each transaction issued for 1 Daily payment of 5.00 starting on 11/18/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
@@ -3812,8 +3797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F61DCC56-CE37-4DAE-9D92-37CB9C481C7F}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection sqref="A1:P2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3873,7 +3858,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="12" t="s">
@@ -3893,17 +3878,17 @@
         <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J2" t="s">
         <v>53</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L2" s="7" t="str">
-        <f ca="1">TEXT(TODAY(),"mm/dd/yyyy")</f>
-        <v>10/15/2025</v>
+        <f ca="1">TEXT(TODAY()+1,"mm/dd/yyyy")</f>
+        <v>11/18/2025</v>
       </c>
       <c r="M2" s="16">
         <v>10</v>
@@ -3935,7 +3920,7 @@
 Payment Plan Type:,	Installment Plan,
 Payment Plan Duration:,	Deferred,
 Payment Plan Start Date:,	
-4. Payment Plan,1 Deferred payment of $10.00 on 10/15/2025,A Convenience Fee will be added to each transaction issued for 1 Deferred payment of 5.00 starting on 10/15/2025 ,Individual Convenience Fee Amount:,	
+4. Payment Plan,1 Deferred payment of $10.00 on 11/18/2025,A Convenience Fee will be added to each transaction issued for 1 Deferred payment of 5.00 starting on 11/18/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
@@ -3943,7 +3928,7 @@
         <f ca="1">"A Convenience Fee will be added to each transaction issued for 1 Deferred payment of "&amp;  TEXT(N2,"0.00")&amp;" starting on "&amp;L2&amp;" ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:"</f>
-        <v>A Convenience Fee will be added to each transaction issued for 1 Deferred payment of 5.00 starting on 10/15/2025 ,Individual Convenience Fee Amount:,	
+        <v>A Convenience Fee will be added to each transaction issued for 1 Deferred payment of 5.00 starting on 11/18/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
@@ -3957,8 +3942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{811FF27C-D0FF-4DEB-9DD7-F2E87A7294CB}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4018,7 +4003,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="12" t="s">
@@ -4038,17 +4023,17 @@
         <v>42</v>
       </c>
       <c r="I2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J2" t="s">
         <v>53</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L2" s="7" t="str">
-        <f ca="1">TEXT(TODAY(),"mm/dd/yyyy")</f>
-        <v>10/15/2025</v>
+        <f ca="1">TEXT(TODAY()+1,"mm/dd/yyyy")</f>
+        <v>11/18/2025</v>
       </c>
       <c r="M2" s="16">
         <v>10</v>
@@ -4080,7 +4065,7 @@
 Payment Plan Type:,	Recurring,
 Payment Plan Duration:,	Deferred,
 Payment Plan Start Date:,	
-4. Payment Plan,1 Deferred payment of $10.00 on 10/15/2025,A Convenience Fee will be added to each transaction issued for 1 Deferred payment of 5.00 starting on 10/15/2025 ,Individual Convenience Fee Amount:,	
+4. Payment Plan,1 Deferred payment of $10.00 on 11/18/2025,A Convenience Fee will be added to each transaction issued for 1 Deferred payment of 5.00 starting on 11/18/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
@@ -4088,7 +4073,7 @@
         <f ca="1">"A Convenience Fee will be added to each transaction issued for 1 Deferred payment of "&amp;  TEXT(N2,"0.00")&amp;" starting on "&amp;L2&amp;" ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:"</f>
-        <v>A Convenience Fee will be added to each transaction issued for 1 Deferred payment of 5.00 starting on 10/15/2025 ,Individual Convenience Fee Amount:,	
+        <v>A Convenience Fee will be added to each transaction issued for 1 Deferred payment of 5.00 starting on 11/18/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
@@ -4103,7 +4088,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection sqref="A1:P2"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4163,7 +4148,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="12" t="s">
@@ -4189,11 +4174,11 @@
         <v>53</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="L2" s="7" t="str">
-        <f ca="1">TEXT(TODAY(),"mm/dd/yyyy")</f>
-        <v>10/15/2025</v>
+        <f ca="1">TEXT(TODAY()+1,"mm/dd/yyyy")</f>
+        <v>11/18/2025</v>
       </c>
       <c r="M2" s="16">
         <v>10</v>
@@ -4225,7 +4210,7 @@
 Payment Plan Type:,	Recurring,
 Payment Plan Duration:,	Daily,
 Payment Plan Start Date:,	
-4. Payment Plan, Daily payment of $10.00 starting on 10/15/2025,A Convenience Fee will be added to each transaction issued for Daily payment of 5.00 starting on 10/15/2025 ,Individual Convenience Fee Amount:,	
+4. Payment Plan, Daily payments of $10.00 starting on 11/18/2025,A Convenience Fee will be added to each transaction issued for Daily payment of 5.00 starting on 11/18/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
@@ -4233,7 +4218,7 @@
         <f ca="1">"A Convenience Fee will be added to each transaction issued for Daily payment of "&amp;  TEXT(N2,"0.00")&amp;" starting on "&amp;L2&amp;" ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:"</f>
-        <v>A Convenience Fee will be added to each transaction issued for Daily payment of 5.00 starting on 10/15/2025 ,Individual Convenience Fee Amount:,	
+        <v>A Convenience Fee will be added to each transaction issued for Daily payment of 5.00 starting on 11/18/2025 ,Individual Convenience Fee Amount:,	
 Total Convenience Fees Paid:,	
 Total Paid under this plan:</v>
       </c>
@@ -4308,7 +4293,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="12" t="s">
@@ -4334,11 +4319,11 @@
         <v>53</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="L2" s="7" t="str">
         <f ca="1">TEXT(TODAY(),"mm/dd/yyyy")</f>
-        <v>10/15/2025</v>
+        <v>11/17/2025</v>
       </c>
       <c r="M2" s="16">
         <v>10</v>
@@ -4429,7 +4414,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="12" t="s">
@@ -4455,11 +4440,11 @@
         <v>53</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="L2" s="7" t="str">
         <f ca="1">TEXT(TODAY()+1,"mm/dd/yyyy")</f>
-        <v>10/16/2025</v>
+        <v>11/18/2025</v>
       </c>
       <c r="M2" s="16">
         <v>10</v>
@@ -4550,7 +4535,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="12" t="s">
@@ -4576,11 +4561,11 @@
         <v>53</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="L2" s="7" t="str">
         <f ca="1">TEXT(TODAY()+1,"mm/dd/yyyy")</f>
-        <v>10/16/2025</v>
+        <v>11/18/2025</v>
       </c>
       <c r="M2" s="16">
         <v>10</v>
@@ -4650,7 +4635,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -4727,7 +4712,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -4804,7 +4789,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -4881,7 +4866,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -4958,7 +4943,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -5035,7 +5020,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
